--- a/data/pca/factorExposure/factorExposure_2017-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02284693661470534</v>
+        <v>-0.01060635776064444</v>
       </c>
       <c r="C2">
-        <v>0.007807291084551252</v>
+        <v>0.04477288696389344</v>
       </c>
       <c r="D2">
-        <v>0.03649689250845241</v>
+        <v>0.02961907587133858</v>
       </c>
       <c r="E2">
-        <v>0.009527204025249213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03314291503377911</v>
+      </c>
+      <c r="F2">
+        <v>0.008507926771417923</v>
+      </c>
+      <c r="G2">
+        <v>0.09591994785458777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01768347086083382</v>
+        <v>-0.04289942106044671</v>
       </c>
       <c r="C3">
-        <v>-0.02706553080565227</v>
+        <v>0.101929710655674</v>
       </c>
       <c r="D3">
-        <v>0.1000522470653635</v>
+        <v>0.01768201228501242</v>
       </c>
       <c r="E3">
-        <v>0.05166431466149705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0986232871853501</v>
+      </c>
+      <c r="F3">
+        <v>0.005917554555137619</v>
+      </c>
+      <c r="G3">
+        <v>0.1888062612398393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02549301658488959</v>
+        <v>-0.05598383606549572</v>
       </c>
       <c r="C4">
-        <v>-0.00703430642765765</v>
+        <v>0.06857620449145579</v>
       </c>
       <c r="D4">
-        <v>0.0889191332709543</v>
+        <v>0.02431478350999431</v>
       </c>
       <c r="E4">
-        <v>-0.008188382733944585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02701809644031093</v>
+      </c>
+      <c r="F4">
+        <v>0.01033024427912647</v>
+      </c>
+      <c r="G4">
+        <v>0.09637420123520918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01362422459624733</v>
+        <v>-0.03727192655111047</v>
       </c>
       <c r="C6">
-        <v>0.00915595121188695</v>
+        <v>0.05342051185681985</v>
       </c>
       <c r="D6">
-        <v>0.08325390646833725</v>
+        <v>0.0167752565495708</v>
       </c>
       <c r="E6">
-        <v>-0.007991502271418973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03128343023680508</v>
+      </c>
+      <c r="F6">
+        <v>0.01007879279589587</v>
+      </c>
+      <c r="G6">
+        <v>0.0793006647555576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01188676935806024</v>
+        <v>-0.02096390774812552</v>
       </c>
       <c r="C7">
-        <v>-0.003596235879223936</v>
+        <v>0.04182246627660686</v>
       </c>
       <c r="D7">
-        <v>0.04453683215994612</v>
+        <v>0.01327225040134159</v>
       </c>
       <c r="E7">
-        <v>-0.04456608862760841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004755031427602273</v>
+      </c>
+      <c r="F7">
+        <v>-0.006376575585306036</v>
+      </c>
+      <c r="G7">
+        <v>0.1254577157255517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0008611675986568054</v>
+        <v>-0.003881176521596243</v>
       </c>
       <c r="C8">
-        <v>-4.833983917839758e-05</v>
+        <v>0.02529109897649791</v>
       </c>
       <c r="D8">
-        <v>0.007583379627195339</v>
+        <v>0.003790551091831392</v>
       </c>
       <c r="E8">
-        <v>-0.003574001350049567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02274967690453882</v>
+      </c>
+      <c r="F8">
+        <v>0.005974416585679585</v>
+      </c>
+      <c r="G8">
+        <v>0.06590625306495007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0175267758609759</v>
+        <v>-0.03373824827821408</v>
       </c>
       <c r="C9">
-        <v>-0.009556866185548655</v>
+        <v>0.04990305846422737</v>
       </c>
       <c r="D9">
-        <v>0.06423922614132374</v>
+        <v>0.01650849216804612</v>
       </c>
       <c r="E9">
-        <v>0.001399952427244295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01693335958653003</v>
+      </c>
+      <c r="F9">
+        <v>0.007469529161621354</v>
+      </c>
+      <c r="G9">
+        <v>0.09618694016077665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03894911241795602</v>
+        <v>-0.09861285055467528</v>
       </c>
       <c r="C10">
-        <v>-0.1771635599036357</v>
+        <v>-0.1809880890976509</v>
       </c>
       <c r="D10">
-        <v>-0.09592727974807946</v>
+        <v>-0.01484748139014266</v>
       </c>
       <c r="E10">
-        <v>0.02896698209649025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02081561812422233</v>
+      </c>
+      <c r="F10">
+        <v>-0.02362761505982318</v>
+      </c>
+      <c r="G10">
+        <v>0.06135379650342823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006147378776356124</v>
+        <v>-0.03507609275734741</v>
       </c>
       <c r="C11">
-        <v>0.00113911398519215</v>
+        <v>0.05486161497812019</v>
       </c>
       <c r="D11">
-        <v>0.05765323555383969</v>
+        <v>0.002113491192370478</v>
       </c>
       <c r="E11">
-        <v>0.003619488585062909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009636323540948542</v>
+      </c>
+      <c r="F11">
+        <v>0.01998500959042939</v>
+      </c>
+      <c r="G11">
+        <v>0.08617790280050448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005805418375339373</v>
+        <v>-0.03671083976554769</v>
       </c>
       <c r="C12">
-        <v>-0.0007742504878852696</v>
+        <v>0.04946053001243647</v>
       </c>
       <c r="D12">
-        <v>0.05203304013077038</v>
+        <v>0.006146385755898213</v>
       </c>
       <c r="E12">
-        <v>-0.01211653776569942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002527251875793481</v>
+      </c>
+      <c r="F12">
+        <v>0.001114215646058201</v>
+      </c>
+      <c r="G12">
+        <v>0.08122801803826514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02529240826333971</v>
+        <v>-0.01667986240843504</v>
       </c>
       <c r="C13">
-        <v>-0.01340574536951218</v>
+        <v>0.04157321367068854</v>
       </c>
       <c r="D13">
-        <v>0.03702019505576546</v>
+        <v>0.02609514202414826</v>
       </c>
       <c r="E13">
-        <v>0.02016569439747345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02992808342254994</v>
+      </c>
+      <c r="F13">
+        <v>0.005437921674034247</v>
+      </c>
+      <c r="G13">
+        <v>0.1234686922684718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009872757765411987</v>
+        <v>-0.009006288607437886</v>
       </c>
       <c r="C14">
-        <v>-0.0115185198395817</v>
+        <v>0.02960393981668859</v>
       </c>
       <c r="D14">
-        <v>0.02102522718285629</v>
+        <v>0.009788805235751692</v>
       </c>
       <c r="E14">
-        <v>0.001442876058083644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002343517888864063</v>
+      </c>
+      <c r="F14">
+        <v>-0.01024536871642505</v>
+      </c>
+      <c r="G14">
+        <v>0.09977279790575454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001968680507731303</v>
+        <v>-0.03351366589250498</v>
       </c>
       <c r="C16">
-        <v>-0.005214726643428569</v>
+        <v>0.04868891459450229</v>
       </c>
       <c r="D16">
-        <v>0.0508852796975247</v>
+        <v>0.001831782499694624</v>
       </c>
       <c r="E16">
-        <v>-0.008870421080939436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00925569198218836</v>
+      </c>
+      <c r="F16">
+        <v>0.002181224402083592</v>
+      </c>
+      <c r="G16">
+        <v>0.09009745367788222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01532797079398327</v>
+        <v>-0.02211583981979764</v>
       </c>
       <c r="C19">
-        <v>-0.00959963935453419</v>
+        <v>0.05469853680041423</v>
       </c>
       <c r="D19">
-        <v>0.04961897337573189</v>
+        <v>0.01874162504765146</v>
       </c>
       <c r="E19">
-        <v>0.001465802220660151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06903645729678584</v>
+      </c>
+      <c r="F19">
+        <v>0.020623000720615</v>
+      </c>
+      <c r="G19">
+        <v>0.1340209053186396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01127609662236442</v>
+        <v>-0.01549712238095165</v>
       </c>
       <c r="C20">
-        <v>-0.002313055174812094</v>
+        <v>0.04038235955734604</v>
       </c>
       <c r="D20">
-        <v>0.03589356113718212</v>
+        <v>0.01392964097843298</v>
       </c>
       <c r="E20">
-        <v>0.02592268825694938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02920763409928315</v>
+      </c>
+      <c r="F20">
+        <v>-0.01367295275322914</v>
+      </c>
+      <c r="G20">
+        <v>0.1060933488196289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01607290364395847</v>
+        <v>-0.01307720850334927</v>
       </c>
       <c r="C21">
-        <v>-0.0114304823505157</v>
+        <v>0.04096546418458163</v>
       </c>
       <c r="D21">
-        <v>0.04045589637088533</v>
+        <v>0.01858374688586367</v>
       </c>
       <c r="E21">
-        <v>0.007294914990700417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04176878175849485</v>
+      </c>
+      <c r="F21">
+        <v>0.0008352837787564941</v>
+      </c>
+      <c r="G21">
+        <v>0.1325283596107495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0006215441390934486</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.000313105482523272</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002878333941033607</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001063085346938373</v>
+      </c>
+      <c r="F22">
+        <v>0.0005139830093488792</v>
+      </c>
+      <c r="G22">
+        <v>0.002462346578690673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0006258872837678244</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0003127522255305707</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002879641210397239</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001068831170503319</v>
+      </c>
+      <c r="F23">
+        <v>0.000512565653055113</v>
+      </c>
+      <c r="G23">
+        <v>0.002474988524975581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003678952420817318</v>
+        <v>-0.02902610225581623</v>
       </c>
       <c r="C24">
-        <v>0.006864835401396306</v>
+        <v>0.05221183693466647</v>
       </c>
       <c r="D24">
-        <v>0.05240486584724752</v>
+        <v>0.006917156540366064</v>
       </c>
       <c r="E24">
-        <v>-0.006088898439707091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.00514537794001573</v>
+      </c>
+      <c r="F24">
+        <v>0.01128211618302558</v>
+      </c>
+      <c r="G24">
+        <v>0.08642968118525957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01317929217803902</v>
+        <v>-0.0436314721124655</v>
       </c>
       <c r="C25">
-        <v>-0.009254583134212253</v>
+        <v>0.05972628584415156</v>
       </c>
       <c r="D25">
-        <v>0.06177553692417318</v>
+        <v>0.01097271815851913</v>
       </c>
       <c r="E25">
-        <v>-0.009272707997395716</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0016431956449165</v>
+      </c>
+      <c r="F25">
+        <v>0.005620090193474797</v>
+      </c>
+      <c r="G25">
+        <v>0.09826928853676778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02319689576100915</v>
+        <v>-0.01399402470619507</v>
       </c>
       <c r="C26">
-        <v>-0.002235471517593446</v>
+        <v>0.01187373767147898</v>
       </c>
       <c r="D26">
-        <v>0.004036228601073486</v>
+        <v>0.02403305665360981</v>
       </c>
       <c r="E26">
-        <v>-0.0032753900069646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007362055641963522</v>
+      </c>
+      <c r="F26">
+        <v>-0.008951366755365836</v>
+      </c>
+      <c r="G26">
+        <v>0.08016623054970262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.06773840664355868</v>
+        <v>-0.1252084566603262</v>
       </c>
       <c r="C28">
-        <v>-0.2434562128135073</v>
+        <v>-0.2374133958721414</v>
       </c>
       <c r="D28">
-        <v>-0.1199307129390233</v>
+        <v>-0.005741834955218791</v>
       </c>
       <c r="E28">
-        <v>0.0003508962362288109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006516252336724756</v>
+      </c>
+      <c r="F28">
+        <v>-0.01631543087814583</v>
+      </c>
+      <c r="G28">
+        <v>0.05639245507990034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01089855735880919</v>
+        <v>-0.009971353343669444</v>
       </c>
       <c r="C29">
-        <v>-0.01683635114290205</v>
+        <v>0.0232893438620859</v>
       </c>
       <c r="D29">
-        <v>0.02182836661518809</v>
+        <v>0.008851502544287333</v>
       </c>
       <c r="E29">
-        <v>0.003893566672190045</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001086117634493757</v>
+      </c>
+      <c r="F29">
+        <v>-0.01903497743484519</v>
+      </c>
+      <c r="G29">
+        <v>0.09338100007225751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02311191046254317</v>
+        <v>-0.04191878069792349</v>
       </c>
       <c r="C30">
-        <v>0.01085774358041304</v>
+        <v>0.06988666015739001</v>
       </c>
       <c r="D30">
-        <v>0.09962198234341681</v>
+        <v>0.02852245611045066</v>
       </c>
       <c r="E30">
-        <v>0.03622323056075588</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05222648710892271</v>
+      </c>
+      <c r="F30">
+        <v>0.04618634779228846</v>
+      </c>
+      <c r="G30">
+        <v>0.1096748345274502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01214712329323934</v>
+        <v>-0.05338279134939406</v>
       </c>
       <c r="C31">
-        <v>-0.028977526546607</v>
+        <v>0.03828875590574094</v>
       </c>
       <c r="D31">
-        <v>0.03965662102536357</v>
+        <v>0.003819243970164899</v>
       </c>
       <c r="E31">
-        <v>-0.0008449532810204336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001737737462977516</v>
+      </c>
+      <c r="F31">
+        <v>-0.04149205092657533</v>
+      </c>
+      <c r="G31">
+        <v>0.09470390932566465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0044737165152232</v>
+        <v>-0.002115209451935591</v>
       </c>
       <c r="C32">
-        <v>-0.01593289346174482</v>
+        <v>0.02625554876644614</v>
       </c>
       <c r="D32">
-        <v>0.01143852113189274</v>
+        <v>-0.003594305318930797</v>
       </c>
       <c r="E32">
-        <v>-0.04198774677491961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01916575331810147</v>
+      </c>
+      <c r="F32">
+        <v>0.03761840909214733</v>
+      </c>
+      <c r="G32">
+        <v>0.09135095319073237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01466681219847443</v>
+        <v>-0.02832394274019516</v>
       </c>
       <c r="C33">
-        <v>-0.01303432096389001</v>
+        <v>0.05103468578091793</v>
       </c>
       <c r="D33">
-        <v>0.04318957470767204</v>
+        <v>0.01563654694224192</v>
       </c>
       <c r="E33">
-        <v>0.02374404276770682</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03585580989806934</v>
+      </c>
+      <c r="F33">
+        <v>0.01707098185932539</v>
+      </c>
+      <c r="G33">
+        <v>0.150147390299843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.001988943922609842</v>
+        <v>-0.04087611069284117</v>
       </c>
       <c r="C34">
-        <v>-0.01525145707330985</v>
+        <v>0.06199233005095216</v>
       </c>
       <c r="D34">
-        <v>0.06109390208521467</v>
+        <v>-0.004900908704228434</v>
       </c>
       <c r="E34">
-        <v>-0.01919677823945191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0006302975599967074</v>
+      </c>
+      <c r="F34">
+        <v>0.01890288116251467</v>
+      </c>
+      <c r="G34">
+        <v>0.0942249146755946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01425784448868363</v>
+        <v>-0.01651156233051525</v>
       </c>
       <c r="C36">
-        <v>-0.0142575443332825</v>
+        <v>0.009820122225459126</v>
       </c>
       <c r="D36">
-        <v>0.007795240103418572</v>
+        <v>0.01219014996521437</v>
       </c>
       <c r="E36">
-        <v>-0.001871344667249808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004030792287166502</v>
+      </c>
+      <c r="F36">
+        <v>-0.008189505782488071</v>
+      </c>
+      <c r="G36">
+        <v>0.08703388138541819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.0002886036297423227</v>
+        <v>-0.0321839655815129</v>
       </c>
       <c r="C38">
-        <v>-0.02769470352262836</v>
+        <v>0.03182963739382367</v>
       </c>
       <c r="D38">
-        <v>0.05223939504701864</v>
+        <v>-0.007535884933520033</v>
       </c>
       <c r="E38">
-        <v>-0.006542368345673324</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002877582708391981</v>
+      </c>
+      <c r="F38">
+        <v>-0.02000244300532072</v>
+      </c>
+      <c r="G38">
+        <v>0.08256323774266407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.002044591888933376</v>
+        <v>-0.03704224511049296</v>
       </c>
       <c r="C39">
-        <v>0.02892344027560004</v>
+        <v>0.08230216599487068</v>
       </c>
       <c r="D39">
-        <v>0.1034776191177601</v>
+        <v>0.01128892468001075</v>
       </c>
       <c r="E39">
-        <v>0.01265158840859445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02078536410086582</v>
+      </c>
+      <c r="F39">
+        <v>0.02274712442280373</v>
+      </c>
+      <c r="G39">
+        <v>0.0853430897907633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01285678035554789</v>
+        <v>-0.01518531328748533</v>
       </c>
       <c r="C40">
-        <v>-0.0080126137690838</v>
+        <v>0.04318767245654211</v>
       </c>
       <c r="D40">
-        <v>0.04317481759090492</v>
+        <v>0.01469873922725897</v>
       </c>
       <c r="E40">
-        <v>-0.01121723487684211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01992262955246794</v>
+      </c>
+      <c r="F40">
+        <v>-0.01697586609466262</v>
+      </c>
+      <c r="G40">
+        <v>0.1222021880591062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.008457471376331458</v>
+        <v>-0.02061591587292425</v>
       </c>
       <c r="C41">
-        <v>-0.02138523480684888</v>
+        <v>0.002755572002356148</v>
       </c>
       <c r="D41">
-        <v>-0.009891628728980452</v>
+        <v>0.004248229885403916</v>
       </c>
       <c r="E41">
-        <v>-0.007458578163840734</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002744702970425077</v>
+      </c>
+      <c r="F41">
+        <v>-0.01533050788315779</v>
+      </c>
+      <c r="G41">
+        <v>0.07600681343708465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08749830060460892</v>
+        <v>-0.009377641221038497</v>
       </c>
       <c r="C42">
-        <v>0.04185984477606347</v>
+        <v>0.03087826154448369</v>
       </c>
       <c r="D42">
-        <v>0.1444192683463838</v>
+        <v>0.09045008956499945</v>
       </c>
       <c r="E42">
-        <v>0.3196703497528275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01881698158536927</v>
+      </c>
+      <c r="F42">
+        <v>-0.03606135224296888</v>
+      </c>
+      <c r="G42">
+        <v>-0.1007441475174038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.009898936731252039</v>
+        <v>-0.03468540619518509</v>
       </c>
       <c r="C43">
-        <v>-0.02442633267773053</v>
+        <v>0.01864199434102047</v>
       </c>
       <c r="D43">
-        <v>-0.004823772443203749</v>
+        <v>0.005954075321316045</v>
       </c>
       <c r="E43">
-        <v>-0.01007780012303648</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01665313951794987</v>
+      </c>
+      <c r="F43">
+        <v>-0.004557684498383903</v>
+      </c>
+      <c r="G43">
+        <v>0.1122088872487958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003109061601435856</v>
+        <v>-0.01318909459336753</v>
       </c>
       <c r="C44">
-        <v>7.419982244979825e-06</v>
+        <v>0.06015715813366343</v>
       </c>
       <c r="D44">
-        <v>0.05714652404027116</v>
+        <v>0.006516763195474003</v>
       </c>
       <c r="E44">
-        <v>-0.00868327841789843</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01765514463060705</v>
+      </c>
+      <c r="F44">
+        <v>-0.01063395817054366</v>
+      </c>
+      <c r="G44">
+        <v>0.1014219355834677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01217714428610113</v>
+        <v>-0.008320535601899251</v>
       </c>
       <c r="C46">
-        <v>-0.009533076845540448</v>
+        <v>0.01809373386395869</v>
       </c>
       <c r="D46">
-        <v>0.008042084754355592</v>
+        <v>0.01254727620542237</v>
       </c>
       <c r="E46">
-        <v>0.01058382099981269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001339151772453515</v>
+      </c>
+      <c r="F46">
+        <v>-0.01824761951615584</v>
+      </c>
+      <c r="G46">
+        <v>0.09716255306150377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.007666847459530548</v>
+        <v>-0.07791933087607814</v>
       </c>
       <c r="C47">
-        <v>-0.03809060758019853</v>
+        <v>0.06730768711231221</v>
       </c>
       <c r="D47">
-        <v>0.07718446226472971</v>
+        <v>-0.005106590051132972</v>
       </c>
       <c r="E47">
-        <v>-0.01142796101999609</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006489688686150895</v>
+      </c>
+      <c r="F47">
+        <v>-0.05635842345963354</v>
+      </c>
+      <c r="G47">
+        <v>0.08256991718607948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005570998075849696</v>
+        <v>-0.01980065013107873</v>
       </c>
       <c r="C48">
-        <v>-0.01805408286669585</v>
+        <v>0.01320730911199419</v>
       </c>
       <c r="D48">
-        <v>0.02036761637935007</v>
+        <v>0.001881102286279854</v>
       </c>
       <c r="E48">
-        <v>0.003469432673265906</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002213502983611059</v>
+      </c>
+      <c r="F48">
+        <v>-0.02101413753649938</v>
+      </c>
+      <c r="G48">
+        <v>0.08998875092912119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.009997710410307529</v>
+        <v>-0.07531769534483711</v>
       </c>
       <c r="C50">
-        <v>-0.04011017084980591</v>
+        <v>0.0724620316607187</v>
       </c>
       <c r="D50">
-        <v>0.07445434934867648</v>
+        <v>-0.002439379953799261</v>
       </c>
       <c r="E50">
-        <v>-0.02752819904239353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006411627270550365</v>
+      </c>
+      <c r="F50">
+        <v>-0.05678352808774643</v>
+      </c>
+      <c r="G50">
+        <v>0.09476555827543161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008478472724070209</v>
+        <v>-0.01483839235570609</v>
       </c>
       <c r="C51">
-        <v>-0.01030720683180304</v>
+        <v>0.0370363878740182</v>
       </c>
       <c r="D51">
-        <v>0.02427546147651843</v>
+        <v>0.01019424175282308</v>
       </c>
       <c r="E51">
-        <v>-0.006367360487127275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01800248291666236</v>
+      </c>
+      <c r="F51">
+        <v>0.02141068133115595</v>
+      </c>
+      <c r="G51">
+        <v>0.1204474146734607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.01062953163573762</v>
+        <v>-0.082291858828949</v>
       </c>
       <c r="C53">
-        <v>-0.03858541621548392</v>
+        <v>0.08577322570386761</v>
       </c>
       <c r="D53">
-        <v>0.1307750954373064</v>
+        <v>-0.003573297276075564</v>
       </c>
       <c r="E53">
-        <v>-0.0197023195933207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02433853249919494</v>
+      </c>
+      <c r="F53">
+        <v>-0.06766326293524767</v>
+      </c>
+      <c r="G53">
+        <v>0.0839192646616452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.006494724789316719</v>
+        <v>-0.03184765616141808</v>
       </c>
       <c r="C54">
-        <v>-0.04055687981062102</v>
+        <v>0.01747175435624693</v>
       </c>
       <c r="D54">
-        <v>0.002017098677624687</v>
+        <v>-0.001645601091843184</v>
       </c>
       <c r="E54">
-        <v>0.01472366927389277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01282712392897344</v>
+      </c>
+      <c r="F54">
+        <v>-0.006163413312100565</v>
+      </c>
+      <c r="G54">
+        <v>0.1008468994728483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.005867251837975341</v>
+        <v>-0.07235482764955076</v>
       </c>
       <c r="C55">
-        <v>-0.02571116867760413</v>
+        <v>0.06937726223635307</v>
       </c>
       <c r="D55">
-        <v>0.1072797603480426</v>
+        <v>-0.005080892751227808</v>
       </c>
       <c r="E55">
-        <v>-0.006610773862932445</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0214628955924409</v>
+      </c>
+      <c r="F55">
+        <v>-0.06419743326516439</v>
+      </c>
+      <c r="G55">
+        <v>0.06014037046026117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.01108917657002276</v>
+        <v>-0.1378981065959479</v>
       </c>
       <c r="C56">
-        <v>-0.05808061796914933</v>
+        <v>0.1081625317750596</v>
       </c>
       <c r="D56">
-        <v>0.1619628496412264</v>
+        <v>-0.01263779687803596</v>
       </c>
       <c r="E56">
-        <v>-0.0248891457164471</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02982249337609826</v>
+      </c>
+      <c r="F56">
+        <v>-0.0815700166789127</v>
+      </c>
+      <c r="G56">
+        <v>0.0335970378774044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02506831573851741</v>
+        <v>-0.006625320408517224</v>
       </c>
       <c r="C57">
-        <v>-0.004187705759136766</v>
+        <v>0.008679444522873924</v>
       </c>
       <c r="D57">
-        <v>0.04301199679834183</v>
+        <v>0.02347730437611206</v>
       </c>
       <c r="E57">
-        <v>0.03601783826457514</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02549842628196489</v>
+      </c>
+      <c r="F57">
+        <v>0.0114443724615356</v>
+      </c>
+      <c r="G57">
+        <v>0.03096342050846211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01317192658857575</v>
+        <v>-0.0533620586899019</v>
       </c>
       <c r="C58">
-        <v>-0.03653504796262135</v>
+        <v>0.05237791954785406</v>
       </c>
       <c r="D58">
-        <v>0.1390482601933967</v>
+        <v>0.02347544445027975</v>
       </c>
       <c r="E58">
-        <v>0.7976723439056184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9382947278409762</v>
+      </c>
+      <c r="F58">
+        <v>-0.2132485175036368</v>
+      </c>
+      <c r="G58">
+        <v>-0.1630351559956447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.06907579944967825</v>
+        <v>-0.1600719148670001</v>
       </c>
       <c r="C59">
-        <v>-0.2666082717356578</v>
+        <v>-0.203505494167223</v>
       </c>
       <c r="D59">
-        <v>-0.103595766482746</v>
+        <v>-0.01122771137858482</v>
       </c>
       <c r="E59">
-        <v>-0.01491228361413205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01846695476470528</v>
+      </c>
+      <c r="F59">
+        <v>-0.0001511236401094408</v>
+      </c>
+      <c r="G59">
+        <v>0.04451414827393891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.06163406123832949</v>
+        <v>-0.2873090141014308</v>
       </c>
       <c r="C60">
-        <v>-0.1602926617001207</v>
+        <v>0.1055915379670191</v>
       </c>
       <c r="D60">
-        <v>0.1394037479177523</v>
+        <v>0.01124031516561012</v>
       </c>
       <c r="E60">
-        <v>-0.05927391832106031</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01149883339189258</v>
+      </c>
+      <c r="F60">
+        <v>0.3453738026872806</v>
+      </c>
+      <c r="G60">
+        <v>-0.144962789712851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003080172816664339</v>
+        <v>-0.03836416604303371</v>
       </c>
       <c r="C61">
-        <v>0.001695387640646857</v>
+        <v>0.06714149778778883</v>
       </c>
       <c r="D61">
-        <v>0.0759696269681234</v>
+        <v>0.005088581805513988</v>
       </c>
       <c r="E61">
-        <v>-0.005904029012448038</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01333992681598956</v>
+      </c>
+      <c r="F61">
+        <v>0.01467083404579053</v>
+      </c>
+      <c r="G61">
+        <v>0.09061608116605122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008872431008998809</v>
+        <v>-0.01553091344436673</v>
       </c>
       <c r="C63">
-        <v>-0.004745487693164127</v>
+        <v>0.03088311999852029</v>
       </c>
       <c r="D63">
-        <v>0.02905346926773161</v>
+        <v>0.008506647134399864</v>
       </c>
       <c r="E63">
-        <v>-0.01289318864139717</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00164922885378474</v>
+      </c>
+      <c r="F63">
+        <v>-0.01793386966875998</v>
+      </c>
+      <c r="G63">
+        <v>0.09321038152116848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.01132036886213691</v>
+        <v>-0.04805346682323381</v>
       </c>
       <c r="C64">
-        <v>-0.02287543531412285</v>
+        <v>0.04748791269019204</v>
       </c>
       <c r="D64">
-        <v>0.06298179339989284</v>
+        <v>0.005908315917902166</v>
       </c>
       <c r="E64">
-        <v>-0.004177600532450331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.000793691557749665</v>
+      </c>
+      <c r="F64">
+        <v>0.004845531887498191</v>
+      </c>
+      <c r="G64">
+        <v>0.08676184544308037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01779521946732998</v>
+        <v>-0.07512936435267344</v>
       </c>
       <c r="C65">
-        <v>0.003276711260489572</v>
+        <v>0.06010036307645409</v>
       </c>
       <c r="D65">
-        <v>0.1105843054973085</v>
+        <v>0.01630875542169341</v>
       </c>
       <c r="E65">
-        <v>-0.02432081732417639</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03218303762374894</v>
+      </c>
+      <c r="F65">
+        <v>0.03085537141055456</v>
+      </c>
+      <c r="G65">
+        <v>0.03397208852025092</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.002643855130700648</v>
+        <v>-0.0521444349365259</v>
       </c>
       <c r="C66">
-        <v>0.02592994073904202</v>
+        <v>0.1097841341607631</v>
       </c>
       <c r="D66">
-        <v>0.1363543256108555</v>
+        <v>0.01121561059591967</v>
       </c>
       <c r="E66">
-        <v>0.00751304805288695</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02979326292048316</v>
+      </c>
+      <c r="F66">
+        <v>0.03483108357850701</v>
+      </c>
+      <c r="G66">
+        <v>0.1018949573949221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.008490581611027628</v>
+        <v>-0.05524113820868928</v>
       </c>
       <c r="C67">
-        <v>-0.0478484584204069</v>
+        <v>0.035026686297317</v>
       </c>
       <c r="D67">
-        <v>0.06830270727177332</v>
+        <v>-0.005910089895713126</v>
       </c>
       <c r="E67">
-        <v>-0.009555383922910261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00362085385199585</v>
+      </c>
+      <c r="F67">
+        <v>-0.01870718452087824</v>
+      </c>
+      <c r="G67">
+        <v>0.07442535623265996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.08337809898508773</v>
+        <v>-0.1535017500184689</v>
       </c>
       <c r="C68">
-        <v>-0.2473349548964884</v>
+        <v>-0.2694569196264543</v>
       </c>
       <c r="D68">
-        <v>-0.152655531838421</v>
+        <v>0.006396304526843712</v>
       </c>
       <c r="E68">
-        <v>0.02400233716118179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01277176797985925</v>
+      </c>
+      <c r="F68">
+        <v>-0.0337355602011858</v>
+      </c>
+      <c r="G68">
+        <v>0.03377315180883762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003397107308974449</v>
+        <v>-0.08258672277603102</v>
       </c>
       <c r="C69">
-        <v>-0.03437693501478881</v>
+        <v>0.07109487562126234</v>
       </c>
       <c r="D69">
-        <v>0.08113890244578734</v>
+        <v>-0.00895568700371694</v>
       </c>
       <c r="E69">
-        <v>-0.02413437540150444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02289539058997108</v>
+      </c>
+      <c r="F69">
+        <v>-0.03770489580415558</v>
+      </c>
+      <c r="G69">
+        <v>0.0939521663333644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0639080505596798</v>
+        <v>-0.1399203635001881</v>
       </c>
       <c r="C71">
-        <v>-0.2113506963008894</v>
+        <v>-0.2278080641261246</v>
       </c>
       <c r="D71">
-        <v>-0.1005187125875055</v>
+        <v>-0.002333248812977736</v>
       </c>
       <c r="E71">
-        <v>0.0252798534253148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03365100922648158</v>
+      </c>
+      <c r="F71">
+        <v>-0.0195671425454536</v>
+      </c>
+      <c r="G71">
+        <v>0.0704232374208462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0008928112683704193</v>
+        <v>-0.08500465321881605</v>
       </c>
       <c r="C72">
-        <v>-0.02610136933005225</v>
+        <v>0.07261620210649994</v>
       </c>
       <c r="D72">
-        <v>0.1087603448271227</v>
+        <v>-0.008493030485803115</v>
       </c>
       <c r="E72">
-        <v>-0.03485465151617608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.005224765149571724</v>
+      </c>
+      <c r="F72">
+        <v>0.03851832301406473</v>
+      </c>
+      <c r="G72">
+        <v>0.08429878997154715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.07574414824339158</v>
+        <v>-0.3767844362474598</v>
       </c>
       <c r="C73">
-        <v>-0.1737035004907759</v>
+        <v>0.1153849275074591</v>
       </c>
       <c r="D73">
-        <v>0.2555946396671558</v>
+        <v>0.01920615856818397</v>
       </c>
       <c r="E73">
-        <v>-0.0286858047392016</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.05568282033767823</v>
+      </c>
+      <c r="F73">
+        <v>0.580121067397446</v>
+      </c>
+      <c r="G73">
+        <v>-0.2597838295680682</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.009359192749147732</v>
+        <v>-0.1052117585473176</v>
       </c>
       <c r="C74">
-        <v>-0.05284758491571547</v>
+        <v>0.1092940539757702</v>
       </c>
       <c r="D74">
-        <v>0.1735865466892799</v>
+        <v>-0.009292896194638552</v>
       </c>
       <c r="E74">
-        <v>-0.01495944234267682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.005818553586396554</v>
+      </c>
+      <c r="F74">
+        <v>-0.06845350180622192</v>
+      </c>
+      <c r="G74">
+        <v>0.07667976319816409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.02482621878139742</v>
+        <v>-0.2487602770880829</v>
       </c>
       <c r="C75">
-        <v>-0.1311465846466721</v>
+        <v>0.1510498360773426</v>
       </c>
       <c r="D75">
-        <v>0.3016868813721449</v>
+        <v>-0.03062701924924033</v>
       </c>
       <c r="E75">
-        <v>-0.02980806635254144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05348143857924254</v>
+      </c>
+      <c r="F75">
+        <v>-0.1777812712284828</v>
+      </c>
+      <c r="G75">
+        <v>-0.03362812128730149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.007523035738437744</v>
+        <v>-0.120115323904919</v>
       </c>
       <c r="C76">
-        <v>-0.07306416955854805</v>
+        <v>0.1100435798584306</v>
       </c>
       <c r="D76">
-        <v>0.220770925483661</v>
+        <v>-0.01859125775952861</v>
       </c>
       <c r="E76">
-        <v>-0.05111622151536711</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02829974518798867</v>
+      </c>
+      <c r="F76">
+        <v>-0.111375564092476</v>
+      </c>
+      <c r="G76">
+        <v>0.05606743946585335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01532331162638436</v>
+        <v>-0.06780227782555279</v>
       </c>
       <c r="C77">
-        <v>-0.01262238031077855</v>
+        <v>0.06086797667857021</v>
       </c>
       <c r="D77">
-        <v>0.06757298481866379</v>
+        <v>0.01120106004323232</v>
       </c>
       <c r="E77">
-        <v>0.01452116431530164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04038108412341639</v>
+      </c>
+      <c r="F77">
+        <v>0.01446231073189967</v>
+      </c>
+      <c r="G77">
+        <v>0.0576565056214954</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004930624756175522</v>
+        <v>-0.04230251207039987</v>
       </c>
       <c r="C78">
-        <v>-0.003958782209423744</v>
+        <v>0.05160251350397966</v>
       </c>
       <c r="D78">
-        <v>0.05808027629684281</v>
+        <v>0.005221231405805292</v>
       </c>
       <c r="E78">
-        <v>0.008796012703428939</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02140698698474499</v>
+      </c>
+      <c r="F78">
+        <v>0.03605194005673326</v>
+      </c>
+      <c r="G78">
+        <v>0.08869297917431074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01357859651573258</v>
+        <v>-0.04504600562244638</v>
       </c>
       <c r="C80">
-        <v>-0.02140656796524608</v>
+        <v>0.07439928223046058</v>
       </c>
       <c r="D80">
-        <v>0.1658561227943496</v>
+        <v>0.01010334231124881</v>
       </c>
       <c r="E80">
-        <v>-0.4389035060485157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03635867152835821</v>
+      </c>
+      <c r="F80">
+        <v>0.004922414623426662</v>
+      </c>
+      <c r="G80">
+        <v>0.2812118899559382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01613954420487682</v>
+        <v>-0.1385773476740134</v>
       </c>
       <c r="C81">
-        <v>-0.0801569126064451</v>
+        <v>0.09576973006568346</v>
       </c>
       <c r="D81">
-        <v>0.1790437527088781</v>
+        <v>-0.01496420853351353</v>
       </c>
       <c r="E81">
-        <v>-0.03728670532684039</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03212768562189486</v>
+      </c>
+      <c r="F81">
+        <v>-0.1310578149419626</v>
+      </c>
+      <c r="G81">
+        <v>0.02296050883666539</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1286892725020465</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07448317413487959</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008330359073123593</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08951726529682807</v>
+      </c>
+      <c r="F82">
+        <v>-0.04610835863017752</v>
+      </c>
+      <c r="G82">
+        <v>0.05312163040328086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008897654287059289</v>
+        <v>-0.03679446228901219</v>
       </c>
       <c r="C83">
-        <v>-0.01683667829741072</v>
+        <v>0.02994929918848252</v>
       </c>
       <c r="D83">
-        <v>0.03951923121793945</v>
+        <v>0.005560985558184611</v>
       </c>
       <c r="E83">
-        <v>0.01765686203772878</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02716998400273138</v>
+      </c>
+      <c r="F83">
+        <v>0.03132066099217675</v>
+      </c>
+      <c r="G83">
+        <v>0.06020433611407783</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02776031403794929</v>
+        <v>-0.2135320129817979</v>
       </c>
       <c r="C85">
-        <v>-0.09417590278585748</v>
+        <v>0.1442359166316511</v>
       </c>
       <c r="D85">
-        <v>0.2661971031025899</v>
+        <v>-0.01782683959959889</v>
       </c>
       <c r="E85">
-        <v>-0.03934011663983899</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09339336056698204</v>
+      </c>
+      <c r="F85">
+        <v>-0.1339667565569744</v>
+      </c>
+      <c r="G85">
+        <v>-0.09428086254822431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0108607535894669</v>
+        <v>-0.01387425170248348</v>
       </c>
       <c r="C86">
-        <v>-0.01876142387175365</v>
+        <v>0.03024610411446231</v>
       </c>
       <c r="D86">
-        <v>0.06449865431796004</v>
+        <v>0.01230849345817852</v>
       </c>
       <c r="E86">
-        <v>0.02986464259908405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04829933985974584</v>
+      </c>
+      <c r="F86">
+        <v>0.03150280279908012</v>
+      </c>
+      <c r="G86">
+        <v>0.1855734826701894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006965273915533579</v>
+        <v>-0.02249540736169694</v>
       </c>
       <c r="C87">
-        <v>0.006589865546099181</v>
+        <v>0.02393689614599885</v>
       </c>
       <c r="D87">
-        <v>0.05340370139126789</v>
+        <v>0.01172931836094295</v>
       </c>
       <c r="E87">
-        <v>0.0286762476649068</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08594235554489638</v>
+      </c>
+      <c r="F87">
+        <v>0.01577518521091009</v>
+      </c>
+      <c r="G87">
+        <v>0.1166062779781354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0317652324372833</v>
+        <v>-0.09301506483525622</v>
       </c>
       <c r="C88">
-        <v>-0.02870682257297767</v>
+        <v>0.06793703461842535</v>
       </c>
       <c r="D88">
-        <v>0.0617466860151809</v>
+        <v>0.02243112397976743</v>
       </c>
       <c r="E88">
-        <v>-0.003187447256301742</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.007440506621337353</v>
+      </c>
+      <c r="F88">
+        <v>-0.01817031940398601</v>
+      </c>
+      <c r="G88">
+        <v>0.0828666133085721</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1221220053782208</v>
+        <v>-0.2323296959813262</v>
       </c>
       <c r="C89">
-        <v>-0.3957589358790378</v>
+        <v>-0.3672034207938307</v>
       </c>
       <c r="D89">
-        <v>-0.1814303266324523</v>
+        <v>0.0004616161838349781</v>
       </c>
       <c r="E89">
-        <v>-0.02840901151345111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01339159463719225</v>
+      </c>
+      <c r="F89">
+        <v>-0.02734827823736402</v>
+      </c>
+      <c r="G89">
+        <v>0.0661819795913119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.09547238751101025</v>
+        <v>-0.2078076777750847</v>
       </c>
       <c r="C90">
-        <v>-0.3159553888488082</v>
+        <v>-0.3191779350671263</v>
       </c>
       <c r="D90">
-        <v>-0.1675505331730772</v>
+        <v>-0.004291686489713604</v>
       </c>
       <c r="E90">
-        <v>0.007065944739919931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002909865380168225</v>
+      </c>
+      <c r="F90">
+        <v>-0.05600993923426136</v>
+      </c>
+      <c r="G90">
+        <v>0.03564254737624203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0193224051753223</v>
+        <v>-0.1867901312149088</v>
       </c>
       <c r="C91">
-        <v>-0.1131228824299784</v>
+        <v>0.1385723858514293</v>
       </c>
       <c r="D91">
-        <v>0.2237741559324146</v>
+        <v>-0.02211342469949807</v>
       </c>
       <c r="E91">
-        <v>-0.03920885644897462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05732449761159474</v>
+      </c>
+      <c r="F91">
+        <v>-0.1452126928777214</v>
+      </c>
+      <c r="G91">
+        <v>0.022241499175988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.06191845891405558</v>
+        <v>-0.1993784216956178</v>
       </c>
       <c r="C92">
-        <v>-0.3148673954113601</v>
+        <v>-0.2561490879171386</v>
       </c>
       <c r="D92">
-        <v>-0.06545141006478113</v>
+        <v>-0.03748824904815098</v>
       </c>
       <c r="E92">
-        <v>0.05796802447731934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0396632669415443</v>
+      </c>
+      <c r="F92">
+        <v>-0.05797248169983898</v>
+      </c>
+      <c r="G92">
+        <v>0.1313507061353781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.09609177485700222</v>
+        <v>-0.2319985515353288</v>
       </c>
       <c r="C93">
-        <v>-0.3380553109307338</v>
+        <v>-0.3154105052876056</v>
       </c>
       <c r="D93">
-        <v>-0.1371897763932856</v>
+        <v>-0.0109289000800598</v>
       </c>
       <c r="E93">
-        <v>0.02440413233166861</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009267983636472193</v>
+      </c>
+      <c r="F93">
+        <v>-0.04108618913236822</v>
+      </c>
+      <c r="G93">
+        <v>0.0501007753860632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.05534066396809764</v>
+        <v>-0.31527123659047</v>
       </c>
       <c r="C94">
-        <v>-0.1630732671394003</v>
+        <v>0.1743481655550185</v>
       </c>
       <c r="D94">
-        <v>0.2717738172850355</v>
+        <v>-0.01677632744483857</v>
       </c>
       <c r="E94">
-        <v>-0.08570890668516978</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1681472690168339</v>
+      </c>
+      <c r="F94">
+        <v>-0.4822253328321203</v>
+      </c>
+      <c r="G94">
+        <v>-0.4166928583907631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.001393744629235794</v>
+        <v>-0.1013817465212887</v>
       </c>
       <c r="C95">
-        <v>-0.02871870844039379</v>
+        <v>0.08555727022658359</v>
       </c>
       <c r="D95">
-        <v>0.1173615251729875</v>
+        <v>-0.01130900224364642</v>
       </c>
       <c r="E95">
-        <v>0.1395988805568194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06749547511081275</v>
+      </c>
+      <c r="F95">
+        <v>0.2057903039423675</v>
+      </c>
+      <c r="G95">
+        <v>-0.09398917250165006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.03008954115925742</v>
+        <v>-0.1977981450659927</v>
       </c>
       <c r="C98">
-        <v>-0.1470463540354359</v>
+        <v>0.04442519536177985</v>
       </c>
       <c r="D98">
-        <v>0.1481384259632307</v>
+        <v>-0.01402908160708484</v>
       </c>
       <c r="E98">
-        <v>0.03893651266317696</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06137364630373057</v>
+      </c>
+      <c r="F98">
+        <v>0.2406442757353472</v>
+      </c>
+      <c r="G98">
+        <v>-0.003723034917350784</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01069210825326233</v>
+        <v>-0.009750919002801168</v>
       </c>
       <c r="C101">
-        <v>-0.01666763128899965</v>
+        <v>0.02331308535746501</v>
       </c>
       <c r="D101">
-        <v>0.0217486943545423</v>
+        <v>0.008698668874144475</v>
       </c>
       <c r="E101">
-        <v>0.003640550140623318</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0009757008821953848</v>
+      </c>
+      <c r="F101">
+        <v>-0.01997923376094642</v>
+      </c>
+      <c r="G101">
+        <v>0.09241319123357383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02133670585991839</v>
+        <v>-0.1170404903928923</v>
       </c>
       <c r="C102">
-        <v>-0.04661249454743296</v>
+        <v>0.08266369362925548</v>
       </c>
       <c r="D102">
-        <v>0.1282233849322946</v>
+        <v>0.0007420488629571697</v>
       </c>
       <c r="E102">
-        <v>-0.01871159994219398</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03379189728671558</v>
+      </c>
+      <c r="F102">
+        <v>-0.04137396995719168</v>
+      </c>
+      <c r="G102">
+        <v>0.008196272371752191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.952583455420196</v>
+        <v>-0.02116959127731017</v>
       </c>
       <c r="C104">
-        <v>0.2717104850088521</v>
+        <v>-0.02888511925884153</v>
       </c>
       <c r="D104">
-        <v>-0.03275819976374614</v>
+        <v>0.9879241043673067</v>
       </c>
       <c r="E104">
-        <v>-0.02945480483255471</v>
+        <v>-0.0455449560266324</v>
+      </c>
+      <c r="F104">
+        <v>-0.03453194007015095</v>
+      </c>
+      <c r="G104">
+        <v>-0.03410825378208067</v>
       </c>
     </row>
   </sheetData>
